--- a/Anupama_Vtiger_Pages_Webelements.xlsx
+++ b/Anupama_Vtiger_Pages_Webelements.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Qspiders\TYSS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TYSS\TYSS_Docs\VTigerAppDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10CCAA09-5BAE-4BA3-979B-A38F1D38F49F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{B7C09BB1-9FF8-44BB-94B7-B000183B1A28}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Sr No.</t>
   </si>
@@ -41,11 +40,14 @@
   <si>
     <t>Attribute_Value</t>
   </si>
+  <si>
+    <t>contact_page</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,11 +415,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76126BC1-9BD0-4D9F-8A78-6D96748076B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,14 +449,20 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
